--- a/RawData/evaluation_of_the_kinetics.xlsx
+++ b/RawData/evaluation_of_the_kinetics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B186D9B-8740-394F-B839-2720326A7704}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159A5E-ADAE-5A45-9586-C22D3549DDCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,12 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2307,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2319,36 +2320,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2464,7 +2465,7 @@
         <v>17.80681818181818</v>
       </c>
       <c r="T3" s="1">
-        <v>0.25454268822813803</v>
+        <v>0.4</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -2507,7 +2508,7 @@
         <v>17.80681818181818</v>
       </c>
       <c r="T4" s="1">
-        <v>0.25667275256477501</v>
+        <v>0.5</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -2550,7 +2551,7 @@
         <v>17.80681818181818</v>
       </c>
       <c r="T5" s="1">
-        <v>0.406537993392458</v>
+        <v>0.5</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -2593,7 +2594,7 @@
         <v>17.80681818181818</v>
       </c>
       <c r="T6" s="1">
-        <v>0.85446009389671596</v>
+        <v>0.9</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -3369,7 +3370,7 @@
         <v>17.80681818181818</v>
       </c>
       <c r="T24" s="1">
-        <v>0.60181924882629501</v>
+        <v>0.9</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3720,102 +3721,512 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="T33" s="1"/>
-      <c r="Y33">
+      <c r="A33" s="1">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5">
+        <v>160</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Y33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="T34" s="1"/>
-      <c r="Y34">
+      <c r="A34" s="1">
+        <v>25</v>
+      </c>
+      <c r="B34" s="5">
+        <v>160</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1">
+        <v>25</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="Y34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="T35" s="1"/>
-      <c r="Y35">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
+        <v>160</v>
+      </c>
+      <c r="C35" s="5">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="Y35" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="T36" s="1"/>
-      <c r="Y36">
+      <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" s="5">
+        <v>160</v>
+      </c>
+      <c r="C36" s="5">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1">
+        <v>40</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="T37" s="1"/>
-      <c r="Y37">
+      <c r="A37" s="1">
+        <v>50</v>
+      </c>
+      <c r="B37" s="5">
+        <v>160</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="5">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="T38" s="1"/>
-      <c r="Y38">
+      <c r="A38" s="1">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5">
+        <v>160</v>
+      </c>
+      <c r="C38" s="5">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1">
+        <v>60</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="Y38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="T39" s="1"/>
-      <c r="Y39">
+      <c r="A39" s="1">
+        <v>70</v>
+      </c>
+      <c r="B39" s="5">
+        <v>160</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1">
+        <v>70</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="Y39" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="T40" s="1"/>
-      <c r="Y40">
+      <c r="A40" s="1">
+        <v>80</v>
+      </c>
+      <c r="B40" s="5">
+        <v>160</v>
+      </c>
+      <c r="C40" s="5">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="5">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1">
+        <v>80</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="Y40" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="T41" s="1"/>
-      <c r="Y41">
+      <c r="A41" s="1">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5">
+        <v>160</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="5">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1">
+        <v>90</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="Y41" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="T42" s="1"/>
-      <c r="Y42">
+      <c r="A42" s="1">
+        <v>100</v>
+      </c>
+      <c r="B42" s="5">
+        <v>160</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13254621274686734</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="5">
+        <v>15</v>
+      </c>
+      <c r="G42" s="5">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <f t="shared" si="1"/>
+        <v>17.80681818181818</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="Y42" s="5">
         <v>0</v>
       </c>
     </row>

--- a/RawData/evaluation_of_the_kinetics.xlsx
+++ b/RawData/evaluation_of_the_kinetics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159A5E-ADAE-5A45-9586-C22D3549DDCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EFB522-2AB0-8348-AA02-D5FAA6291B10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,12 +238,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2308,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2320,36 +2321,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2461,8 +2462,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N42" si="1">15.67/0.88</f>
-        <v>17.80681818181818</v>
+        <v>14.64</v>
       </c>
       <c r="T3" s="1">
         <v>0.4</v>
@@ -2503,9 +2503,8 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N4" s="6">
+        <v>14.64</v>
       </c>
       <c r="T4" s="1">
         <v>0.5</v>
@@ -2546,9 +2545,8 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N5" s="6">
+        <v>14.64</v>
       </c>
       <c r="T5" s="1">
         <v>0.5</v>
@@ -2589,9 +2587,8 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N6" s="6">
+        <v>14.64</v>
       </c>
       <c r="T6" s="1">
         <v>0.9</v>
@@ -2632,9 +2629,8 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N7" s="6">
+        <v>14.64</v>
       </c>
       <c r="T7" s="1">
         <v>1.6472243957572601</v>
@@ -2675,9 +2671,8 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N8" s="6">
+        <v>14.64</v>
       </c>
       <c r="T8" s="1">
         <v>1.7992957746478899</v>
@@ -2718,9 +2713,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N9" s="6">
+        <v>14.64</v>
       </c>
       <c r="T9" s="1">
         <v>1.9019953051643199</v>
@@ -2761,9 +2755,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N10" s="6">
+        <v>14.64</v>
       </c>
       <c r="T10" s="1">
         <v>3.87785819857416</v>
@@ -2804,9 +2797,8 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N11" s="6">
+        <v>14.64</v>
       </c>
       <c r="T11" s="1">
         <v>4.1778169014084501</v>
@@ -2847,9 +2839,8 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N12" s="6">
+        <v>14.64</v>
       </c>
       <c r="T12" s="1">
         <v>7.9284037558685503</v>
@@ -2890,9 +2881,8 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N13" s="6">
+        <v>14.64</v>
       </c>
       <c r="T13" s="1">
         <v>0.40250608589810699</v>
@@ -2933,9 +2923,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N14" s="6">
+        <v>14.64</v>
       </c>
       <c r="T14" s="1">
         <v>0.50315162580421102</v>
@@ -2976,9 +2965,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N15" s="6">
+        <v>14.64</v>
       </c>
       <c r="T15" s="1">
         <v>0.94886758824552997</v>
@@ -3019,9 +3007,8 @@
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N16" s="6">
+        <v>14.64</v>
       </c>
       <c r="T16" s="1">
         <v>2.1854460093896799</v>
@@ -3062,9 +3049,8 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N17" s="6">
+        <v>14.64</v>
       </c>
       <c r="T17" s="1">
         <v>3.3725765084333199</v>
@@ -3107,9 +3093,8 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N18" s="6">
+        <v>14.64</v>
       </c>
       <c r="T18" s="1">
         <v>5.6443661971830998</v>
@@ -3150,9 +3135,8 @@
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N19" s="6">
+        <v>14.64</v>
       </c>
       <c r="T19" s="1">
         <v>6.0428403755868603</v>
@@ -3193,9 +3177,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N20" s="6">
+        <v>14.64</v>
       </c>
       <c r="T20" s="1">
         <v>7.0327877760389503</v>
@@ -3236,9 +3219,8 @@
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N21" s="6">
+        <v>14.64</v>
       </c>
       <c r="T21" s="1">
         <v>7.8750000000000098</v>
@@ -3279,9 +3261,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N22" s="6">
+        <v>14.64</v>
       </c>
       <c r="T22" s="1">
         <v>9.5058685446009399</v>
@@ -3322,9 +3303,8 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N23" s="6">
+        <v>14.64</v>
       </c>
       <c r="T23" s="1">
         <v>0.40250608589810699</v>
@@ -3365,9 +3345,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N24" s="6">
+        <v>14.64</v>
       </c>
       <c r="T24" s="1">
         <v>0.9</v>
@@ -3408,9 +3387,8 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N25" s="6">
+        <v>14.64</v>
       </c>
       <c r="T25" s="1">
         <v>3.4136563206398902</v>
@@ -3451,9 +3429,8 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N26" s="6">
+        <v>14.64</v>
       </c>
       <c r="T26" s="1">
         <v>5.4389671361502403</v>
@@ -3494,9 +3471,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N27" s="6">
+        <v>14.64</v>
       </c>
       <c r="T27" s="1">
         <v>9.9782103112502192</v>
@@ -3537,9 +3513,8 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N28" s="6">
+        <v>14.64</v>
       </c>
       <c r="T28" s="1">
         <v>10.1302056164145</v>
@@ -3580,9 +3555,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N29" s="6">
+        <v>14.64</v>
       </c>
       <c r="T29" s="1">
         <v>10.676643192488299</v>
@@ -3623,9 +3597,8 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N30" s="6">
+        <v>14.64</v>
       </c>
       <c r="T30" s="1">
         <v>11.617370892018799</v>
@@ -3666,9 +3639,8 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N31" s="6">
+        <v>14.64</v>
       </c>
       <c r="T31" s="1">
         <v>11.670774647887299</v>
@@ -3709,9 +3681,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N32" s="6">
+        <v>14.64</v>
       </c>
       <c r="T32" s="1">
         <v>12.019953051643199</v>
@@ -3755,9 +3726,8 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N33" s="6">
+        <v>14.64</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -3806,9 +3776,8 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N34" s="6">
+        <v>14.64</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -3857,9 +3826,8 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N35" s="6">
+        <v>14.64</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -3908,9 +3876,8 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N36" s="6">
+        <v>14.64</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -3959,9 +3926,8 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N37" s="6">
+        <v>14.64</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -4010,9 +3976,8 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N38" s="6">
+        <v>14.64</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -4061,9 +4026,8 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N39" s="6">
+        <v>14.64</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4112,9 +4076,8 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N40" s="6">
+        <v>14.64</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4163,9 +4126,8 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N41" s="6">
+        <v>14.64</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -4214,9 +4176,8 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5">
-        <f t="shared" si="1"/>
-        <v>17.80681818181818</v>
+      <c r="N42" s="6">
+        <v>14.64</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
